--- a/biology/Botanique/Caraipa_parvifolia/Caraipa_parvifolia.xlsx
+++ b/biology/Botanique/Caraipa_parvifolia/Caraipa_parvifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caraipa parvifolia est une espèce de plantes à fleurs de la famille des Calophyllaceae (anciennement des Clusiaceae). C'est un arbre méconnu, endémique du Nord de la Guyane. C'est l'espèce type du genre Caraipa Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caraipa parvifolia est une espèce déterminante ZNIEFF en Guyane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caraipa parvifolia est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caraipa parvifolia est un arbre ou un arbuste à rameaux rougeâtres.
 Ses feuilles sont simples alternes, entières, pétiolées penninervées, tomenteuses-canescentes en dessous, de forme ovales aiguës, avec de courtes stipules opposées et aiguës.
@@ -553,7 +569,7 @@
 On compte 5 pétales libres.
 Les nombreuses étamines ont de longs filets, et des anthères avec le large connectif terminé par une glande.
 L'ovaire comporte 3 loges.
-Le fruit est une capsule ligneuse, velue-cendrée sub-trigone à acumen incurvé, avec 3 valves persistantes s'ouvrant de haut en bas[3],[4].
+Le fruit est une capsule ligneuse, velue-cendrée sub-trigone à acumen incurvé, avec 3 valves persistantes s'ouvrant de haut en bas,.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caraipa parvifolia est uniquement connu des forêts du nord de la Guyane (cf. GBIF       (7 mars 2022)[5]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caraipa parvifolia est uniquement connu des forêts du nord de la Guyane (cf. GBIF       (7 mars 2022)).
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Caraipa parvifolia est une espèce encore largement méconnue.
 </t>
@@ -644,9 +664,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CARAIPA (parvifolia) foliis ovatis, acutis, fubtus tomentoſis^ candicantibus. (Tabula 223. Fig. 1.)
 Arbor viginti-pedalis, ramoſiſſima ; ramulis rubicundis. Folia alterna, ovata, acuta, integerrima, ſuprà viridia, ſubtùs incana, petiolata; stipulis brevibus, oppoſitis, acutis. Flores racemoſi, terminales. Fructus ; capſula villoſa, cinerea, ſubtrigona, in acumen incurvum deſinens, trilocularis, trivalvis ; valvulis ab apice dehiſcentibus, non deciduis. Lignum trunci internum, rubrum ; alburni, rufeſcens ; utrumque compadum.
 Fructum ferebat Julio.
